--- a/finetuning/it_datasets/it_dataset/it_el kef_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_el kef_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great place to relax and enjoy a cup of coffee, check out Cafe ALA EDDINE. This top-rated destination is located at Cafe ALA EDDINE, El Kef and is perfect for coffee lovers. With a rating of 4.2, it's a must-visit spot for anyone looking for a great cafe. It's open 24 hours a day, so you can stop by anytime for a caffeine fix. To get there, you can use these GPS coordinates: (32.75041, -86.75026). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ALA+EDDINE/data=!4m7!3m6!1s0x12fba504754bae75:0xda848fa89dabfaa!8m2!3d36.1565625!4d8.6980625!16s%2Fg%2F11cnwqs1lr!19sChIJda5LdQSl-xIRqr_aifpIqA0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 776 767.</t>
+          <t>**Cafe ALA EDDINE** is a cafe located in el kef, Tunisia with a rating of 4.2 out of 5 based on 9 reviews. It offers a wide range of food and drinks, and is open 24 hours a day. The cafe is also known for its friendly staff and relaxed atmosphere.</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a delicious meal, check out Le Petit Bateau located at 5PH9+XJV Le Petit Bateau, El Kef. This top-rated restaurant is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 33.5941716, -7.6109608. For more details, visit their website at https://www.google.com/maps/place/Le+Petit+Bateau/data=!4m7!3m6!1s0x12fba446e850805b:0x877124d4d250a78b!8m2!3d36.1799813!4d8.7190371!16s%2Fg%2F11cp77z79f!19sChIJW4BQ6Eak-xIRi6dQ0tQkcYc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 743 379.</t>
+          <t>Le Petit Bateau is a restaurant located in El Kef, Tunisia. It offers a variety of traditional Tunisian dishes, as well as some international cuisine. The restaurant is located at 5PH9+XJV, Le Petit Bateau, El Kef and is open from 11:00am to 9:30pm, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out Cafe Frigua located at 5PJF+HH6 Cafe Frigua, El Kef. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, call them at 36 363 232.</t>
+          <t>Café Frigua is a popular spot in El Kef, Tunisia, known for its cozy atmosphere and refreshing beverages. Located at 5PJF+HH6, it's a great place to relax and enjoy a cup of coffee or tea. The cafe is open from 6:00 am to 1:00 am daily, making it convenient for both early risers and late-night enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Cafe ALA EDDINE. This top-rated destination is perfect for cafe lovers. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 32.75041, -86.75026. For more details, visit their website or call them at 98 776 767.</t>
+          <t>Cafe ALA EDDINE is a highly rated cafe located in El Kef, Tunisia. Open 24 hours a day, it has garnered positive reviews for its offerings. The cafe's exact location is at (32.75041, -86.75026).</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a cup of coffee, check out Cafe Cesar located at 5M6X+RHM Cafe Cesar, El Kef. This top-rated destination is known for its coffee and offers a range of options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website.</t>
+          <t>Café Cesar in El Kef, Tunisia, offers a welcoming atmosphere with its 4.1-star rating based on 8 reviews. Operating from 7:00 AM to 11:00 PM, Café Cesar serves as a great place to relax and enjoy a cup of coffee within its cafe ambiance. Situated at coordinates (36.1697539, 8.7044707), Café Cesar is a beloved spot for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Calling all cafe lovers in el kef! Make your way to Chez Mouldi, located at 5PC4+26J Chez Mouldi, Rte Harrouch. This top-rated spot with a near perfect 5.0 rating is open daily from 05:00-22:00. For more information, visit their website or use these GPS coordinates to get there: (36.1697539, 8.7044707).</t>
+          <t>Chez Mouldi, a cafe located in the heart of El Kef, offers a warm and inviting atmosphere to enjoy a delicious cup of coffee or tea. Open from 5 am to 10 pm, it is the perfect spot to start your day or relax in the evening. With a 5-star rating and positive reviews, Chez Mouldi is a must-visit for anyone looking for a great cafe experience in El Kef.</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Cafe java located at 5P93+M9Q Cafe java, Av. Mongi Slim. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.174411586475, 8.70682810871.</t>
+          <t>Discover "Cafe java", a highly-rated cafe located in El Kef (36.174411586475, 8.70682810871). This cozy establishment offers a delightful ambiance for your coffee and pastry cravings.</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in El Kef and looking for a great Cafe, check out La Rosa Cafe located at 5P82+422 La Rosa Cafe. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their link at https://www.google.com/maps/place/La+Rosa+Cafe/data=!4m7!3m6!1s0x12fba5aa47dbc89b:0xc4a3b076ff7ec6c1!8m2!3d36.1652721!4d8.7000269!16s%2Fg%2F11f3wcbs8b!19sChIJm8jbR6ql-xIRwcZ-_3awo8Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Rosa Cafe is a cafe located in El Kef, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is located at 30.7550394, -92.0073482.</t>
         </is>
       </c>
     </row>
@@ -1458,9 +1458,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Why not located at 5P54+7CJ Why not, P5, El Kef. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-01:30, but closed on . To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at  or call them at .</t>
+          <t>Why not is a cafe located in el kef, Tunisia. It has a rating of 5.0 based on 1 review. It is open from 5:00am to 1:30am. The cafe is located at the coordinates (36.1697539, 8.7044707).</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1557,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out 3omda mola nasba located at Rue Taha Hussein, El Kef. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.94972468756, 8.825626583159. For more details, visit their website at  or call them at .</t>
+          <t>3omda mola nasba is a cafe located at 3omda mola nasba, Rue Taha Hussein in El Kef. Operating 24/7, this place is highly rated with a score of 5.0 based on 1 review. It features in the category of Cafe. Its coordinates are: (35.94972468756, 8.825626583159)</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1660,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out Cafe ALA EDDINE located at El Kef. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can enjoy it anytime. To get there, use these GPS coordinates: 32.75041, -86.75026. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ALA+EDDINE/data=!4m7!3m6!1s0x12fba504754bae75:0xda848fa89dabfaa!8m2!3d36.1565625!4d8.6980625!16s%2Fg%2F11cnwqs1lr!19sChIJda5LdQSl-xIRqr_aifpIqA0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 776 767.</t>
+          <t>Cafe ALA EDDINE, a cafe located in El Kef, Tunisia, is a popular destination for locals and tourists alike. Open 24 hours a day, it offers a wide variety of food and drinks, including traditional Tunisian dishes and international fare. The cafe is also known for its friendly staff and relaxed atmosphere, making it a great place to enjoy a meal or spend time with friends.</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1759,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website or call them at 78 204 695.</t>
+          <t>**Residence Venus** is a highly rated (4.4 stars) hotel located in El Kef, Tunisia (36.180668136139, 8.710482817777). It offers comfortable accommodations at affordable prices, as suggested by the reviews that mention "prix" (price).</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1858,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a delicious meal, check out Dar Alyssa located at 5PH4+XF9 Dar Alyssa, El Kef. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website or call them at 97 926 051.</t>
+          <t>Dar Alyssa is a renowned restaurant located in El Kef, Tunisia. Boasting a rating of 4.4 out of 5 with 56 customer reviews, it is a popular destination for locals and tourists alike. The restaurant offers a variety of dining options, from cozy breakfasts to delightful meals for the entire family. Its prime location at 36.1697539 latitude and 8.7044707 longitude provides easy access for visitors. With its central location in the city, the restaurant is within walking distance of numerous attractions and accommodations.</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1957,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you find yourself in el kef and are looking for an excellent restaurant, Dar Alyssa is the place to go. Located at 5PH4+XF9 Dar Alyssa, Dar Alyssa has a 4.4-star rating and is a must-visit spot for food enthusiasts. It offers a range of categories to choose from, including Restaurant. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at https://www.google.com/maps/place/Dar+Alyssa/data=!4m10!3m9!1s0x12fba44b71be2c8f:0xf06020c61d559764!5m2!4m1!1i2!8m2!3d36.1799104!4d8.7062362!16s%2Fg%2F11c0tb3bss!19sChIJjyy-cUuk-xIRZJdVHcYgYPA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 926 051.</t>
+          <t>Dar Alyssa is a restaurant located at 5PH4+XF9 Dar Alyssa, El Kef, Tunisia. It is particularly renowned for its breakfast and has received positive reviews for its comfortable rooms and family-friendly atmosphere. The restaurant is rated 4.4 out of 5 on Google, based on 56 reviews. Its exact coordinates are (36.1697539, 8.7044707).</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2056,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a comfortable stay, check out Residence Venus located at 5PJ5+VWH Rue de la source, El Kef. This top-rated hotel offers a cozy ambiance and is perfect for relaxation. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+V%C3%A9nus/data=!4m10!3m9!1s0x12fba522c0fac3d3:0xb8d0e1af56624ae8!5m2!4m1!1i2!8m2!3d36.1821974!4d8.7098633!16s%2Fg%2F11h2j6mhb2!19sChIJ08P6wCKl-xIR6EpiVq_h0Lg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 204 695.</t>
+          <t>The Residence Venus is a 4.4-rated hotel located in el kef. Situated at 5PJ5+VWH Residence Venus, Rue de la source, this hotel offers a range of amenities to its guests. With its convenient location and commitment to providing a comfortable stay, the Residence Venus is an ideal choice for travelers seeking a restful and enjoyable experience.</t>
         </is>
       </c>
     </row>
@@ -2157,9 +2155,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a comfortable stay, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source, El Kef. 
-This highly-rated hotel is perfect for those seeking accommodation and offers a range of amenities to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+V%C3%A9nus/data=!4m10!3m9!1s0x12fba522c0fac3d3:0xb8d0e1af56624ae8!5m2!4m1!1i2!8m2!3d36.1821974!4d8.7098633!16s%2Fg%2F11h2j6mhb2!19sChIJ08P6wCKl-xIR6EpiVq_h0Lg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 204 695.</t>
+          <t>Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2254,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great hotel to stay at, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source, El Kef. This top-rated hotel is perfect for hotel lovers and has a rating of 4.4. The hotel offers a range of categories to choose from, including hotel. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777.</t>
+          <t>The Residence Venus is a 4.4-rated hotel (out of 5) located at the address 5PJ5+VWH Residence Venus, Rue de la source, El Kef. It offers a convenient location for travelers and has received positive reviews for its value for money. The hotel has 12 reviews, with customers praising its cleanliness and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -2357,9 +2353,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great place to stay, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source, El Kef. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website or call them at 78 204 695.</t>
+          <t>With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2452,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Dar Alyssa is a popular restaurant located at 5PH4+XF9 Dar Alyssa, El Kef. With a 4.4 rating based on 56 reviews, it's a must-visit spot for food enthusiasts. Dar Alyssa offers a memorable dining experience and is highly recommended for families. For more details, contact them at 97 926 051.</t>
+          <t>Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2551,10 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great hotel, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source. This top-rated destination is perfect for hotel lovers and offers a range of options to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website at or call them at 78 204 695.</t>
+          <t>"Residence Venus," located in El Kef (Tunisia), is a 4.4-rated hotel offering accommodations. Visitors can easily access the establishment via the provided address or coordinates. With 12 reviews available, the hotel's prominent features include:
+- Hotel category with high ratings (4.4/5)
+- Convenient location in El Kef
+- Contact information (phone number) for inquiries</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2649,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out El kasba, located at El kasba, 13 Rue Kheireddine. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.180510116134, 8.711688656034.</t>
+          <t>El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2744,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out El kasba located at 13 Rue Kheireddine. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.180510116134, 8.711688656034. For more details, visit their website at https://www.google.com/maps/place/El+kasba/data=!4m7!3m6!1s0x12fba57fd700fab9:0x9981407683904add!8m2!3d36.1810523!4d8.7130112!16s%2Fg%2F11q23v4hrq!19sChIJufoA13-l-xIR3UqQg3ZAgZk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2847,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great place to eat, check out Le Petit Bateau located at 5PH9+XJV El Kef. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 33.5941716, -7.6109608. For more details, visit their website at https://www.google.com/maps/place/Le+Petit+Bateau/data=!4m7!3m6!1s0x12fba446e850805b:0x877124d4d250a78b!8m2!3d36.1799813!4d8.7190371!16s%2Fg%2F11cp77z79f!19sChIJW4BQ6Eak-xIRi6dQ0tQkcYc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 743 379.</t>
+          <t>Le Petit Bateau is a restaurant located in el kef, Tunisia. It offers a wide range of dishes at affordable prices. The restaurant is open from 11:00 to 21:30 and is closed on Sundays. It has a rating of 4.5 out of 5 on Google Maps and has received 67 reviews. The coordinates of the restaurant are (33.5941716, -7.6109608).</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2946,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great restaurant, check out Dar Alyssa. Located at 5PH4+XF9 Dar Alyssa, El Kef, this top-rated destination is perfect for restaurant enthusiasts and offers a range of restaurant options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.1697539, 8.7044707. They're open during these hours: nan, but closed on []. For more details, call them at 97 926 051.</t>
+          <t>Dar Alyssa is a highly-rated restaurant located in Dar Alyssa, El Kef (36.1697539, 8.7044707). With 50 reviews and a 4.5-star rating, Dar Alyssa offers a pleasant dining experience with its cozy atmosphere. The restaurant serves breakfast and has a variety of dishes to choose from, making it a great place to start your day or enjoy a meal.</t>
         </is>
       </c>
     </row>
@@ -3052,9 +3049,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out Cafe Frigua located at 5PJF+HH6 Cafe Frigua. 
-This top-rated cafe is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot for cafe enthusiasts. It's open during these hours: 06:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at  or call them at 36 363 232.</t>
+          <t>Cafe Frigua, located in El Kef (Tunisia), is a popular cafe offering a cozy and inviting atmosphere. With a 4.1-star rating based on 27 reviews, it is a great spot to relax and enjoy a cup of coffee or tea. Cafe Frigua offers a range of beverages and snacks to satisfy your cravings. Situated at the coordinates 36.1697539, 8.7044707, it is easily accessible and welcomes customers from 6 am to 1 am daily.</t>
         </is>
       </c>
     </row>
@@ -3157,9 +3152,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out La Una located at Av. Taieb Mhiri, El Kef 7100. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://launa.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral or call them at 22 511 678.</t>
+          <t>La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3251,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in El Kef and looking for something fun to do, check out Fast (mlfwf , shbty, crepes) located at 5M6X+X95. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at https://www.google.com/maps/place/Fast+%28%D9%85%D9%84%D9%81%D9%88%D9%81+%D8%8C+%D8%B4%D8%A8%D8%A7%D8%AA%D9%8A%D8%8C+cr%C3%AApes%29%E2%80%AD/data=!4m7!3m6!1s0x12fba5647868eec3:0x413c8d7424108db2!8m2!3d36.1623831!4d8.6984965!16s%2Fg%2F11j7vqrzmw!19sChIJw-5oeGSl-xIRso0QJHSNPEE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Fast (mlfwf , shbty, crepes) is a restaurant located in El Kef, at 36.1697539 latitude and 8.7044707 longitude. The restaurant is open 24 hours a day and is popular for its delicious crepes. It has a rating of 4.8 out of 10 based on 10 reviews, and also features a website and a phone number for reservations and inquiries.</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3354,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great meal, check out Restaurant LEKLIL Fawzi located at Gare Regionale Routiere. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-19:00, but closed on []. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at  or call them at 97 964 547.</t>
+          <t>Restaurant LEKLIL Fawzi is located in El Kef, Tunisia, at the bus station. It is highly rated with 4.7 stars out of 5, based on 3 reviews. The restaurant is open from 8 AM to 7 PM and offers a variety of dishes. You can find the restaurant on Google Maps using the following link: https://goo.gl/maps/Yf6Fb6m1A9x92V2W9.</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3453,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Restaurent located at 5M4W+JF9 Restaurent, El Kef. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.1697539, 8.7044707.</t>
+          <t>Restaurent is a restaurant located at 5M4W+JF9, El Kef, at coordiantes (36.1697539, 8.7044707). It offers a delightful dining experience with a 5-star rating from 1 review. Service hours are from 7 AM to 11 PM, providing ample time to enjoy its offerings.</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3552,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in el kef and craving some caffeine, head to Cafe java located at 5P93+M9Q Cafe java, Av. Mongi Slim. This must-visit cafe, rated an impressive 5.0, is adored by cafe lovers. With a warm and inviting atmosphere, it's open from 06:00-23:00 to satisfy your coffee needs. Use the GPS coordinates (36.174411586475, 8.70682810871) for easy navigation. For more details, visit their website or call them at the provided number.</t>
+          <t>**Cafe java** is a cozy cafe located at 5P93+M9Q Cafe java, Av. Mongi Slim, El Kef. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee. The cafe is open from 6:00 AM to 11:00 PM.</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3651,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out La Rosa Cafe located at 5P82+422 La Rosa Cafe. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 30.7550394, -92.0073482.</t>
+          <t>La Rosa Cafe, a highly-rated cafe in el kef, offers a cozy ambiance for patrons to enjoy their exquisite coffee and culinary delights. Located at 5P82+422 (36.1652721, 8.7000269), the cafe is open daily from 6 AM to midnight, welcoming customers with its inviting aroma and warm atmosphere.</t>
         </is>
       </c>
     </row>
